--- a/TestDataFile/TestFile.xlsx
+++ b/TestDataFile/TestFile.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9875"/>
+    <workbookView windowWidth="18671" windowHeight="8495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:C3"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>S.no</t>
   </si>
@@ -35,6 +37,33 @@
   </si>
   <si>
     <t>Password2</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>naveenanimation20@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@12</t>
+  </si>
+  <si>
+    <t>naveenanimation120@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Test@12345</t>
+  </si>
+  <si>
+    <t>naveenaniation20@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@124</t>
   </si>
 </sst>
 </file>
@@ -71,6 +100,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -78,8 +108,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,7 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,15 +133,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,33 +176,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,23 +201,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,14 +216,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,73 +238,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,37 +394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,74 +422,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -403,11 +432,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,21 +497,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,23 +530,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,153 +549,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
@@ -978,7 +1025,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1002,7 +1049,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -1013,7 +1060,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -1028,4 +1075,78 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="naveenanimation20@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@12" tooltip="mailto:Test@12"/>
+    <hyperlink ref="A3" r:id="rId3" display="naveenanimation120@gmail.com" tooltip="mailto:naveenanimation120@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="Test@1234"/>
+    <hyperlink ref="A4" r:id="rId1" display="naveenanimation20@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId5" display="Test@12345" tooltip="mailto:Test@12345"/>
+    <hyperlink ref="A5" r:id="rId6" display="naveenaniation20@gmail.com" tooltip="mailto:naveenaniation20@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId7" display="Test@124" tooltip="mailto:Test@124"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>